--- a/example_files/custom-scenario-table-template-simple-with-inputs-in-orange-and-defaults-in-gray.xlsx
+++ b/example_files/custom-scenario-table-template-simple-with-inputs-in-orange-and-defaults-in-gray.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/projects/PyLoopKit/example_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ABFB13-495D-954F-B852-2E72B3ACCB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1208C19-C7A3-F34A-91CA-668747983720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="29440" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,10 +1060,10 @@
   <dimension ref="A1:EI46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1703,7 +1703,7 @@
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="E34" s="5">
         <v>43692.520833333336</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
